--- a/Income/CE_inc.xlsx
+++ b/Income/CE_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.2256</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2216</v>
+        <v>0.2222</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2303</v>
+        <v>0.2308</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.246</v>
+        <v>0.2465</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2546</v>
+        <v>0.255</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2609</v>
@@ -4083,16 +4083,16 @@
         <v>0.1903</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.188</v>
+        <v>0.1692</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.1934</v>
+        <v>0.1753</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.1937</v>
+        <v>0.1768</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2053</v>
+        <v>0.189</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2107</v>
